--- a/outputs/Diagnosis/description_codes_v1_v2.xlsx
+++ b/outputs/Diagnosis/description_codes_v1_v2.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="icd9" sheetId="2" r:id="rId3"/>
     <sheet name="icd10" sheetId="3" r:id="rId5"/>
+    <sheet name="self" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7226" uniqueCount="3944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="4149">
   <si>
     <t>labels_new_icd9</t>
   </si>
@@ -11847,6 +11848,621 @@
   </si>
   <si>
     <t>F32</t>
+  </si>
+  <si>
+    <t>labels_new_self</t>
+  </si>
+  <si>
+    <t>Ischaemic heart disease</t>
+  </si>
+  <si>
+    <t>Hypertensive diseases</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Cirrhosis</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>Parkinsonism</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Crohn disease</t>
+  </si>
+  <si>
+    <t>Ulcerative colitis</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Sleep apnoea</t>
+  </si>
+  <si>
+    <t>Anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Anxiety or GAD (not inc. social anxiety)</t>
+  </si>
+  <si>
+    <t>Bulimia nervosa</t>
+  </si>
+  <si>
+    <t>OCD</t>
+  </si>
+  <si>
+    <t>Panic attacks</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Glomerular diseases</t>
+  </si>
+  <si>
+    <t>Renal failure</t>
+  </si>
+  <si>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Emphysema</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis</t>
+  </si>
+  <si>
+    <t>Gastro-oesophageal reflux disease (GORD)</t>
+  </si>
+  <si>
+    <t>Oesophagitis</t>
+  </si>
+  <si>
+    <t>Dermatitis and eczema</t>
+  </si>
+  <si>
+    <t>Gastritis</t>
+  </si>
+  <si>
+    <t>description_new_self</t>
+  </si>
+  <si>
+    <t>iron deficiency anaemia</t>
+  </si>
+  <si>
+    <t>pernicious anaemia</t>
+  </si>
+  <si>
+    <t>aplastic anaemia</t>
+  </si>
+  <si>
+    <t>anaemia</t>
+  </si>
+  <si>
+    <t>colitis/not crohns or ulcerative colitis</t>
+  </si>
+  <si>
+    <t>inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>crohns disease</t>
+  </si>
+  <si>
+    <t>colitis/not crohns or ulcerative colitis</t>
+  </si>
+  <si>
+    <t>inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>ulcerative colitis</t>
+  </si>
+  <si>
+    <t>dementia/alzheimers/cognitive impairment</t>
+  </si>
+  <si>
+    <t>epilepsy</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>headaches (not migraine)</t>
+  </si>
+  <si>
+    <t>multiple sclerosis</t>
+  </si>
+  <si>
+    <t>other demyelinating disease (not multiple sclerosis)</t>
+  </si>
+  <si>
+    <t>parkinsons disease</t>
+  </si>
+  <si>
+    <t>wolff parkinson white / wpw syndrome</t>
+  </si>
+  <si>
+    <t>sleep apnoea</t>
+  </si>
+  <si>
+    <t>anorexia/bulimia/other eating disorder</t>
+  </si>
+  <si>
+    <t>anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>mania/bipolar disorder/manic depression</t>
+  </si>
+  <si>
+    <t>iron deficiency anaemia</t>
+  </si>
+  <si>
+    <t>pernicious anaemia</t>
+  </si>
+  <si>
+    <t>aplastic anaemia</t>
+  </si>
+  <si>
+    <t>anaemia</t>
+  </si>
+  <si>
+    <t>colitis/not crohns or ulcerative colitis</t>
+  </si>
+  <si>
+    <t>inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>crohns disease</t>
+  </si>
+  <si>
+    <t>colitis/not crohns or ulcerative colitis</t>
+  </si>
+  <si>
+    <t>inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>ulcerative colitis</t>
+  </si>
+  <si>
+    <t>epilepsy</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>headaches (not migraine)</t>
+  </si>
+  <si>
+    <t>sleep apnoea</t>
+  </si>
+  <si>
+    <t>anorexia/bulimia/other eating disorder</t>
+  </si>
+  <si>
+    <t>anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>anorexia/bulimia/other eating disorder</t>
+  </si>
+  <si>
+    <t>obsessive compulsive disorder (ocd)</t>
+  </si>
+  <si>
+    <t>anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>pyelonephritis</t>
+  </si>
+  <si>
+    <t>nephritis</t>
+  </si>
+  <si>
+    <t>glomerulnephritis</t>
+  </si>
+  <si>
+    <t>renal/kidney failure</t>
+  </si>
+  <si>
+    <t>renal failure requiring dialysis</t>
+  </si>
+  <si>
+    <t>renal failure not requiring dialysis</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>infective/viral hepatitis</t>
+  </si>
+  <si>
+    <t>non-infective hepatitis</t>
+  </si>
+  <si>
+    <t>hepatitis a</t>
+  </si>
+  <si>
+    <t>hepatitis b</t>
+  </si>
+  <si>
+    <t>hepatitis c</t>
+  </si>
+  <si>
+    <t>hepatitis d</t>
+  </si>
+  <si>
+    <t>hepatitis e</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>emphysema/chronic bronchitis</t>
+  </si>
+  <si>
+    <t>emphysema</t>
+  </si>
+  <si>
+    <t>fibrocystic disease</t>
+  </si>
+  <si>
+    <t>gastro-oesophageal reflux (gord) / gastric reflux</t>
+  </si>
+  <si>
+    <t>oesophagitis/barretts oesophagus</t>
+  </si>
+  <si>
+    <t>eczema/dermatitis</t>
+  </si>
+  <si>
+    <t>contact dermatitis</t>
+  </si>
+  <si>
+    <t>gastritis/gastric erosions</t>
+  </si>
+  <si>
+    <t>code_new_self</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1670</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>cross_check_self</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>description_old_self</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>code_old_self</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1291</t>
   </si>
 </sst>
 </file>
@@ -11867,7 +12483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -11876,15 +12492,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42856,4 +43470,1197 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="true"/>
+    <col min="2" max="2" width="47.28515625" customWidth="true"/>
+    <col min="3" max="3" width="14.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" customWidth="true"/>
+    <col min="5" max="5" width="19.28515625" customWidth="true"/>
+    <col min="6" max="6" width="13.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4114</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>4117</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4058</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>4060</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>4066</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>4080</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>4084</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>4021</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>4110</v>
+      </c>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/outputs/Diagnosis/description_codes_v1_v2.xlsx
+++ b/outputs/Diagnosis/description_codes_v1_v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="4149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7888" uniqueCount="4363">
   <si>
     <t>labels_new_icd9</t>
   </si>
@@ -11898,6 +11898,9 @@
     <t>Bipolar</t>
   </si>
   <si>
+    <t>Cancer</t>
+  </si>
+  <si>
     <t>Anemia</t>
   </si>
   <si>
@@ -11967,6 +11970,357 @@
     <t>description_new_self</t>
   </si>
   <si>
+    <t>heart attack/myocardial infarction</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>essential hypertension</t>
+  </si>
+  <si>
+    <t>gestational hypertension/pre-eclampsia</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>subarachnoid haemorrhage</t>
+  </si>
+  <si>
+    <t>ischaemic stroke</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>chronic obstructive airways disease/copd</t>
+  </si>
+  <si>
+    <t>emphysema/chronic bronchitis</t>
+  </si>
+  <si>
+    <t>bronchiectasis</t>
+  </si>
+  <si>
+    <t>emphysema</t>
+  </si>
+  <si>
+    <t>type 1 diabetes</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>gestational diabetes</t>
+  </si>
+  <si>
+    <t>type 2 diabetes</t>
+  </si>
+  <si>
+    <t>diabetic eye disease</t>
+  </si>
+  <si>
+    <t>diabetic neuropathy/ulcers</t>
+  </si>
+  <si>
+    <t>diabetes insipidus</t>
+  </si>
+  <si>
+    <t>diabetic nephropathy</t>
+  </si>
+  <si>
+    <t>liver failure/cirrhosis</t>
+  </si>
+  <si>
+    <t>primary biliary cirrhosis</t>
+  </si>
+  <si>
+    <t>alcoholic liver disease / alcoholic cirrhosis</t>
+  </si>
+  <si>
+    <t>osteoarthritis</t>
+  </si>
+  <si>
+    <t>osteoporosis</t>
+  </si>
+  <si>
+    <t>osteopenia</t>
+  </si>
+  <si>
+    <t>dementia/alzheimers/cognitive impairment</t>
+  </si>
+  <si>
+    <t>parkinsons disease</t>
+  </si>
+  <si>
+    <t>wolff parkinson white / wpw syndrome</t>
+  </si>
+  <si>
+    <t>multiple sclerosis</t>
+  </si>
+  <si>
+    <t>other demyelinating disease (not multiple sclerosis)</t>
+  </si>
+  <si>
+    <t>schizophrenia</t>
+  </si>
+  <si>
+    <t>mania/bipolar disorder/manic depression</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>urinary tract cancer</t>
+  </si>
+  <si>
+    <t>lung cancer</t>
+  </si>
+  <si>
+    <t>breast cancer</t>
+  </si>
+  <si>
+    <t>skin cancer</t>
+  </si>
+  <si>
+    <t>cancer of lip/mouth/pharynx/oral cavity</t>
+  </si>
+  <si>
+    <t>salivary gland cancer</t>
+  </si>
+  <si>
+    <t>larynx/throat cancer</t>
+  </si>
+  <si>
+    <t>nasal cavity cancer</t>
+  </si>
+  <si>
+    <t>ear cancer</t>
+  </si>
+  <si>
+    <t>sinus cancer</t>
+  </si>
+  <si>
+    <t>lip cancer</t>
+  </si>
+  <si>
+    <t>tongue cancer</t>
+  </si>
+  <si>
+    <t>gum cancer</t>
+  </si>
+  <si>
+    <t>parotid gland cancer</t>
+  </si>
+  <si>
+    <t>other salivary gland cancer</t>
+  </si>
+  <si>
+    <t>oesophageal cancer</t>
+  </si>
+  <si>
+    <t>stomach cancer</t>
+  </si>
+  <si>
+    <t>small intestine/small bowel cancer</t>
+  </si>
+  <si>
+    <t>large bowel cancer/colorectal cancer</t>
+  </si>
+  <si>
+    <t>anal cancer</t>
+  </si>
+  <si>
+    <t>colon cancer/sigmoid cancer</t>
+  </si>
+  <si>
+    <t>rectal cancer</t>
+  </si>
+  <si>
+    <t>liver/hepatocellular cancer</t>
+  </si>
+  <si>
+    <t>gallbladder/bile duct cancer</t>
+  </si>
+  <si>
+    <t>pancreas cancer</t>
+  </si>
+  <si>
+    <t>small cell lung cancer</t>
+  </si>
+  <si>
+    <t>non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>peripheral nerve/autonomic nerve cancer</t>
+  </si>
+  <si>
+    <t>eye and/or adnexal cancer</t>
+  </si>
+  <si>
+    <t>meningeal cancer / malignant meningioma</t>
+  </si>
+  <si>
+    <t>brain cancer / primary malignant brain tumour</t>
+  </si>
+  <si>
+    <t>spinal cord or cranial nerve cancer</t>
+  </si>
+  <si>
+    <t>kidney/renal cell cancer</t>
+  </si>
+  <si>
+    <t>bladder cancer</t>
+  </si>
+  <si>
+    <t>other cancer of urinary tract</t>
+  </si>
+  <si>
+    <t>female genital tract cancer</t>
+  </si>
+  <si>
+    <t>male genital tract cancer</t>
+  </si>
+  <si>
+    <t>ovarian cancer</t>
+  </si>
+  <si>
+    <t>uterine/endometrial cancer</t>
+  </si>
+  <si>
+    <t>cervical cancer</t>
+  </si>
+  <si>
+    <t>vaginal cancer</t>
+  </si>
+  <si>
+    <t>vulval cancer</t>
+  </si>
+  <si>
+    <t>prostate cancer</t>
+  </si>
+  <si>
+    <t>testicular cancer</t>
+  </si>
+  <si>
+    <t>penis cancer</t>
+  </si>
+  <si>
+    <t>lymphoma</t>
+  </si>
+  <si>
+    <t>leukaemia</t>
+  </si>
+  <si>
+    <t>multiple myeloma</t>
+  </si>
+  <si>
+    <t>myelofibrosis or myelodysplasia</t>
+  </si>
+  <si>
+    <t>hodgkins lymphoma / hodgkins disease</t>
+  </si>
+  <si>
+    <t>non-hodgkins lymphoma</t>
+  </si>
+  <si>
+    <t>chronic lymphocytic</t>
+  </si>
+  <si>
+    <t>chronic myeloid</t>
+  </si>
+  <si>
+    <t>other haematological malignancy</t>
+  </si>
+  <si>
+    <t>malignant melanoma</t>
+  </si>
+  <si>
+    <t>non-melanoma skin cancer</t>
+  </si>
+  <si>
+    <t>basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>primary bone cancer</t>
+  </si>
+  <si>
+    <t>mesothelioma</t>
+  </si>
+  <si>
+    <t>thyroid cancer</t>
+  </si>
+  <si>
+    <t>parathyroid cancer</t>
+  </si>
+  <si>
+    <t>adrenal cancer</t>
+  </si>
+  <si>
+    <t>sarcoma/fibrosarcoma</t>
+  </si>
+  <si>
+    <t>malignant lymph node, unspecified</t>
+  </si>
+  <si>
+    <t>metastatic cancer (unknown primary)</t>
+  </si>
+  <si>
+    <t>cin/pre-cancer cells cervix</t>
+  </si>
+  <si>
+    <t>rodent ulcer</t>
+  </si>
+  <si>
+    <t>acute myeloid leukaemia</t>
+  </si>
+  <si>
+    <t>retinoblastoma</t>
+  </si>
+  <si>
+    <t>kaposis sarcoma</t>
+  </si>
+  <si>
+    <t>mouth cancer</t>
+  </si>
+  <si>
+    <t>tonsil cancer</t>
+  </si>
+  <si>
+    <t>oropharynx / oropharyngeal cancer</t>
+  </si>
+  <si>
+    <t>trachea cancer</t>
+  </si>
+  <si>
+    <t>thymus cancer / malignant thymoma</t>
+  </si>
+  <si>
+    <t>heart / mediastinum cancer</t>
+  </si>
+  <si>
+    <t>respiratory / intrathoracic cancer</t>
+  </si>
+  <si>
+    <t>bone metastases / bony secondaries</t>
+  </si>
+  <si>
+    <t>appendix cancer</t>
+  </si>
+  <si>
+    <t>fallopian tube cancer</t>
+  </si>
+  <si>
+    <t>malignant insulinoma</t>
+  </si>
+  <si>
     <t>iron deficiency anaemia</t>
   </si>
   <si>
@@ -11997,9 +12351,6 @@
     <t>ulcerative colitis</t>
   </si>
   <si>
-    <t>dementia/alzheimers/cognitive impairment</t>
-  </si>
-  <si>
     <t>epilepsy</t>
   </si>
   <si>
@@ -12009,295 +12360,709 @@
     <t>headaches (not migraine)</t>
   </si>
   <si>
+    <t>sleep apnoea</t>
+  </si>
+  <si>
+    <t>anorexia/bulimia/other eating disorder</t>
+  </si>
+  <si>
+    <t>anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>anorexia/bulimia/other eating disorder</t>
+  </si>
+  <si>
+    <t>obsessive compulsive disorder (ocd)</t>
+  </si>
+  <si>
+    <t>anxiety/panic attacks</t>
+  </si>
+  <si>
+    <t>rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>pyelonephritis</t>
+  </si>
+  <si>
+    <t>nephritis</t>
+  </si>
+  <si>
+    <t>glomerulnephritis</t>
+  </si>
+  <si>
+    <t>renal/kidney failure</t>
+  </si>
+  <si>
+    <t>renal failure requiring dialysis</t>
+  </si>
+  <si>
+    <t>renal failure not requiring dialysis</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>infective/viral hepatitis</t>
+  </si>
+  <si>
+    <t>non-infective hepatitis</t>
+  </si>
+  <si>
+    <t>hepatitis a</t>
+  </si>
+  <si>
+    <t>hepatitis b</t>
+  </si>
+  <si>
+    <t>hepatitis c</t>
+  </si>
+  <si>
+    <t>hepatitis d</t>
+  </si>
+  <si>
+    <t>hepatitis e</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>emphysema/chronic bronchitis</t>
+  </si>
+  <si>
+    <t>emphysema</t>
+  </si>
+  <si>
+    <t>fibrocystic disease</t>
+  </si>
+  <si>
+    <t>gastro-oesophageal reflux (gord) / gastric reflux</t>
+  </si>
+  <si>
+    <t>oesophagitis/barretts oesophagus</t>
+  </si>
+  <si>
+    <t>eczema/dermatitis</t>
+  </si>
+  <si>
+    <t>contact dermatitis</t>
+  </si>
+  <si>
+    <t>gastritis/gastric erosions</t>
+  </si>
+  <si>
+    <t>code_new_self</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1469</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1670</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>cross_check_self</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>overlaps</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>overlaps</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>description_old_self</t>
+  </si>
+  <si>
+    <t>gestational hypertension/pre-eclampsia</t>
+  </si>
+  <si>
+    <t>angina</t>
+  </si>
+  <si>
+    <t>substance abuse/dependency</t>
+  </si>
+  <si>
+    <t>venous thromboembolic disease</t>
+  </si>
+  <si>
+    <t>heart attack/myocardial infarction</t>
+  </si>
+  <si>
+    <t>pericardial problem</t>
+  </si>
+  <si>
+    <t>subdural haemorrhage/haematoma</t>
+  </si>
+  <si>
+    <t>aortic stenosis</t>
+  </si>
+  <si>
+    <t>hepatitis e</t>
+  </si>
+  <si>
+    <t>atrial fibrillation</t>
+  </si>
+  <si>
+    <t>gastrointestinal bleeding</t>
+  </si>
+  <si>
+    <t>renal/kidney failure</t>
+  </si>
+  <si>
+    <t>renal failure requiring dialysis</t>
+  </si>
+  <si>
+    <t>testicular problems (not cancer)</t>
+  </si>
+  <si>
+    <t>non-infective hepatitis</t>
+  </si>
+  <si>
+    <t>haemorrhoids / piles</t>
+  </si>
+  <si>
+    <t>rectal prolapse</t>
+  </si>
+  <si>
+    <t>rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>osteomyelitis</t>
+  </si>
+  <si>
+    <t>parkinsons disease</t>
+  </si>
+  <si>
     <t>multiple sclerosis</t>
   </si>
   <si>
-    <t>other demyelinating disease (not multiple sclerosis)</t>
-  </si>
-  <si>
-    <t>parkinsons disease</t>
-  </si>
-  <si>
-    <t>wolff parkinson white / wpw syndrome</t>
-  </si>
-  <si>
-    <t>sleep apnoea</t>
-  </si>
-  <si>
-    <t>anorexia/bulimia/other eating disorder</t>
-  </si>
-  <si>
-    <t>anxiety/panic attacks</t>
-  </si>
-  <si>
-    <t>mania/bipolar disorder/manic depression</t>
-  </si>
-  <si>
-    <t>iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>pernicious anaemia</t>
-  </si>
-  <si>
-    <t>aplastic anaemia</t>
-  </si>
-  <si>
-    <t>anaemia</t>
-  </si>
-  <si>
-    <t>colitis/not crohns or ulcerative colitis</t>
-  </si>
-  <si>
-    <t>inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t>crohns disease</t>
-  </si>
-  <si>
-    <t>colitis/not crohns or ulcerative colitis</t>
-  </si>
-  <si>
-    <t>inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t>ulcerative colitis</t>
-  </si>
-  <si>
-    <t>epilepsy</t>
-  </si>
-  <si>
-    <t>migraine</t>
-  </si>
-  <si>
-    <t>headaches (not migraine)</t>
-  </si>
-  <si>
-    <t>sleep apnoea</t>
-  </si>
-  <si>
-    <t>anorexia/bulimia/other eating disorder</t>
-  </si>
-  <si>
-    <t>anxiety/panic attacks</t>
-  </si>
-  <si>
-    <t>anorexia/bulimia/other eating disorder</t>
-  </si>
-  <si>
-    <t>obsessive compulsive disorder (ocd)</t>
-  </si>
-  <si>
-    <t>anxiety/panic attacks</t>
-  </si>
-  <si>
-    <t>rheumatoid arthritis</t>
-  </si>
-  <si>
-    <t>pyelonephritis</t>
-  </si>
-  <si>
-    <t>nephritis</t>
-  </si>
-  <si>
-    <t>glomerulnephritis</t>
-  </si>
-  <si>
-    <t>renal/kidney failure</t>
-  </si>
-  <si>
-    <t>renal failure requiring dialysis</t>
-  </si>
-  <si>
-    <t>renal failure not requiring dialysis</t>
-  </si>
-  <si>
-    <t>hepatitis</t>
-  </si>
-  <si>
-    <t>infective/viral hepatitis</t>
-  </si>
-  <si>
-    <t>non-infective hepatitis</t>
-  </si>
-  <si>
-    <t>hepatitis a</t>
-  </si>
-  <si>
-    <t>hepatitis b</t>
-  </si>
-  <si>
-    <t>hepatitis c</t>
-  </si>
-  <si>
-    <t>hepatitis d</t>
-  </si>
-  <si>
-    <t>hepatitis e</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>emphysema/chronic bronchitis</t>
-  </si>
-  <si>
-    <t>emphysema</t>
-  </si>
-  <si>
-    <t>fibrocystic disease</t>
-  </si>
-  <si>
-    <t>gastro-oesophageal reflux (gord) / gastric reflux</t>
-  </si>
-  <si>
-    <t>oesophagitis/barretts oesophagus</t>
-  </si>
-  <si>
-    <t>eczema/dermatitis</t>
-  </si>
-  <si>
-    <t>contact dermatitis</t>
-  </si>
-  <si>
-    <t>gastritis/gastric erosions</t>
-  </si>
-  <si>
-    <t>code_new_self</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>1464</t>
-  </si>
-  <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1262</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1462</t>
-  </si>
-  <si>
-    <t>1464</t>
-  </si>
-  <si>
-    <t>1265</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>1465</t>
-  </si>
-  <si>
-    <t>1516</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
+    <t>myasthenia gravis</t>
+  </si>
+  <si>
+    <t>nervous breakdown</t>
+  </si>
+  <si>
+    <t>retinal artery/vein occlusion</t>
+  </si>
+  <si>
+    <t>deliberate self-harm/suicide attempt</t>
+  </si>
+  <si>
+    <t>code_old_self</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>1192</t>
   </si>
   <si>
     <t>1193</t>
@@ -12306,130 +13071,7 @@
     <t>1194</t>
   </si>
   <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>1579</t>
-  </si>
-  <si>
-    <t>1580</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>1582</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1473</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1670</t>
-  </si>
-  <si>
-    <t>1154</t>
-  </si>
-  <si>
-    <t>cross_check_self</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>description_old_self</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>code_old_self</t>
-  </si>
-  <si>
-    <t>1074</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>1081</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>1491</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1472</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1194</t>
-  </si>
-  <si>
     <t>1220</t>
-  </si>
-  <si>
-    <t>1223</t>
   </si>
   <si>
     <t>1158</t>
@@ -43474,14 +44116,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F167"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="true"/>
     <col min="2" max="2" width="47.28515625" customWidth="true"/>
     <col min="3" max="3" width="14.5703125" customWidth="true"/>
     <col min="4" max="4" width="15.85546875" customWidth="true"/>
-    <col min="5" max="5" width="19.28515625" customWidth="true"/>
+    <col min="5" max="5" width="36.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -43490,19 +44132,19 @@
         <v>3944</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4048</v>
+        <v>4144</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4114</v>
+        <v>4305</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4116</v>
+        <v>4311</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4120</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="2">
@@ -43510,72 +44152,74 @@
         <v>3945</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4049</v>
+        <v>4145</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4115</v>
+        <v>4306</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4117</v>
+        <v>4312</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4121</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>3945</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>4050</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>4115</v>
-      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0" t="s">
-        <v>4117</v>
+        <v>4313</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>4122</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3985</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4051</v>
+        <v>4146</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+        <v>4306</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>4314</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>4340</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3986</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4052</v>
+        <v>4147</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
+        <v>4306</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>4341</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -43585,56 +44229,56 @@
         <v>3987</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4053</v>
+        <v>4148</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4115</v>
+        <v>4306</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4118</v>
+        <v>4316</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>4123</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3988</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4054</v>
+        <v>4149</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4115</v>
+        <v>4306</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4119</v>
+        <v>4317</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>4124</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3989</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4055</v>
+        <v>4150</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4115</v>
+        <v>4306</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4119</v>
+        <v>4318</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>4125</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="9">
@@ -43645,71 +44289,67 @@
         <v>3990</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4056</v>
+        <v>4151</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>4115</v>
+        <v>4306</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>4119</v>
+        <v>4319</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>4126</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
         <v>3947</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>3991</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>4057</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>4115</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
       <c r="E10" s="0" t="s">
-        <v>4119</v>
+        <v>4320</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>4127</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4058</v>
+        <v>4152</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4115</v>
+        <v>4307</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4119</v>
+        <v>4321</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>4128</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3947</v>
-      </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>4129</v>
-      </c>
+        <v>3948</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
@@ -43719,64 +44359,58 @@
         <v>3993</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4059</v>
+        <v>4154</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>4130</v>
-      </c>
+        <v>4308</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
         <v>3948</v>
       </c>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>4131</v>
-      </c>
+      <c r="B14" s="0" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
         <v>3948</v>
       </c>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>4132</v>
-      </c>
+      <c r="B15" s="0" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
         <v>3949</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>3994</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>4060</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>4115</v>
-      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
       <c r="E16" s="0" t="s">
-        <v>4119</v>
+        <v>4322</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>4133</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="17">
@@ -43787,10 +44421,10 @@
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0" t="s">
-        <v>4119</v>
+        <v>4323</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>4134</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="18">
@@ -43801,10 +44435,10 @@
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0" t="s">
-        <v>4119</v>
+        <v>4324</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>4135</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="19">
@@ -43812,19 +44446,19 @@
         <v>3950</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4061</v>
+        <v>4157</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>4115</v>
+        <v>4309</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>4119</v>
+        <v>4325</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>4136</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="20">
@@ -43832,834 +44466,2326 @@
         <v>3950</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4062</v>
+        <v>4158</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>4137</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4063</v>
+        <v>4159</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>4138</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4064</v>
+        <v>4160</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>4139</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3951</v>
-      </c>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>4140</v>
-      </c>
+        <v>3950</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4065</v>
+        <v>4162</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>4141</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4066</v>
+        <v>4163</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>4115</v>
+        <v>4310</v>
       </c>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4067</v>
+        <v>4164</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>4142</v>
-      </c>
+        <v>4310</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3954</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0" t="s">
-        <v>4119</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>4143</v>
-      </c>
+        <v>3950</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3955</v>
-      </c>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
+        <v>3951</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E28" s="0" t="s">
-        <v>4119</v>
+        <v>4326</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>4144</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3956</v>
+        <v>3951</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4068</v>
+        <v>4167</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>4115</v>
+        <v>4310</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>4119</v>
+        <v>4327</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>4145</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3957</v>
+        <v>3951</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4069</v>
+        <v>4168</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>4115</v>
+        <v>4310</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>4119</v>
+        <v>4328</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>4146</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3958</v>
-      </c>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
+        <v>3952</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E31" s="0" t="s">
-        <v>4119</v>
+        <v>4329</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>4147</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3959</v>
+        <v>3953</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4004</v>
+        <v>4009</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4070</v>
+        <v>4170</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>4115</v>
+        <v>4310</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>4119</v>
+        <v>4330</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>4148</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3960</v>
+        <v>3953</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4005</v>
+        <v>4010</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D33" s="0"/>
+        <v>4171</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3960</v>
+        <v>3954</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4006</v>
+        <v>4011</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4072</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
+        <v>4172</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>4357</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>4007</v>
+        <v>4012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4073</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
+        <v>4173</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>4358</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="D36" s="0"/>
+        <v>4174</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4009</v>
+        <v>4014</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4075</v>
-      </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
+        <v>4175</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>4333</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>4359</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>4010</v>
+        <v>4015</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4076</v>
-      </c>
-      <c r="D38" s="0"/>
+        <v>4176</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
+        <v>4177</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>4334</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>4360</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>4012</v>
+        <v>4017</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>4078</v>
-      </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
+        <v>4178</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>4361</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>4079</v>
-      </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
+        <v>4178</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>4336</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>4362</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>4014</v>
+        <v>4018</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>4080</v>
-      </c>
-      <c r="D42" s="0"/>
+        <v>4179</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="D43" s="0"/>
+        <v>4180</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>4082</v>
-      </c>
-      <c r="D44" s="0"/>
+        <v>4181</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>4017</v>
+        <v>4021</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>4083</v>
-      </c>
-      <c r="D45" s="0"/>
+        <v>4182</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>4084</v>
-      </c>
-      <c r="D46" s="0"/>
+        <v>4183</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3966</v>
+        <v>3960</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>4085</v>
-      </c>
-      <c r="D47" s="0"/>
+        <v>4184</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3967</v>
+        <v>3960</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>4020</v>
+        <v>4024</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>4086</v>
-      </c>
-      <c r="D48" s="0"/>
+        <v>4185</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3968</v>
+        <v>3960</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>4087</v>
-      </c>
-      <c r="D49" s="0"/>
+        <v>4186</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3969</v>
+        <v>3960</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>4088</v>
-      </c>
-      <c r="D50" s="0"/>
+        <v>4187</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3970</v>
+        <v>3960</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>4023</v>
+        <v>4027</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>4089</v>
-      </c>
-      <c r="D51" s="0"/>
+        <v>4188</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3971</v>
+        <v>3960</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>4090</v>
-      </c>
-      <c r="D52" s="0"/>
+        <v>4189</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E52" s="0"/>
       <c r="F52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3972</v>
+        <v>3960</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>4091</v>
-      </c>
-      <c r="D53" s="0"/>
+        <v>4190</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E53" s="0"/>
       <c r="F53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3972</v>
+        <v>3960</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>4092</v>
-      </c>
-      <c r="D54" s="0"/>
+        <v>4191</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E54" s="0"/>
       <c r="F54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3972</v>
+        <v>3960</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>4093</v>
-      </c>
-      <c r="D55" s="0"/>
+        <v>4192</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3973</v>
+        <v>3960</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>4094</v>
-      </c>
-      <c r="D56" s="0"/>
+        <v>4193</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>3973</v>
+        <v>3960</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>4095</v>
-      </c>
-      <c r="D57" s="0"/>
+        <v>4194</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>3973</v>
+        <v>3960</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>4030</v>
+        <v>4034</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>4096</v>
-      </c>
-      <c r="D58" s="0"/>
+        <v>4195</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>4031</v>
+        <v>4035</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>4097</v>
-      </c>
-      <c r="D59" s="0"/>
+        <v>4196</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E59" s="0"/>
       <c r="F59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>4032</v>
+        <v>4036</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>4098</v>
-      </c>
-      <c r="D60" s="0"/>
+        <v>4197</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>4033</v>
+        <v>4037</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>4099</v>
-      </c>
-      <c r="D61" s="0"/>
+        <v>4198</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>4034</v>
+        <v>4038</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>4100</v>
-      </c>
-      <c r="D62" s="0"/>
+        <v>4199</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E62" s="0"/>
       <c r="F62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>4035</v>
+        <v>4039</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>4101</v>
-      </c>
-      <c r="D63" s="0"/>
+        <v>4200</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>4036</v>
+        <v>4040</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>4102</v>
-      </c>
-      <c r="D64" s="0"/>
+        <v>4201</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>4037</v>
+        <v>4041</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>4103</v>
-      </c>
-      <c r="D65" s="0"/>
+        <v>4202</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E65" s="0"/>
       <c r="F65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>3974</v>
+        <v>3960</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>4038</v>
+        <v>4042</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>4104</v>
-      </c>
-      <c r="D66" s="0"/>
+        <v>4203</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E66" s="0"/>
       <c r="F66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>3975</v>
+        <v>3960</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>4105</v>
-      </c>
-      <c r="D67" s="0"/>
+        <v>4204</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>3976</v>
+        <v>3960</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>4040</v>
+        <v>4044</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>4106</v>
-      </c>
-      <c r="D68" s="0"/>
+        <v>4205</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>3976</v>
+        <v>3960</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>4041</v>
+        <v>4045</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>4107</v>
-      </c>
-      <c r="D69" s="0"/>
+        <v>4206</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>3977</v>
+        <v>3960</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>4042</v>
+        <v>4046</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>4108</v>
-      </c>
-      <c r="D70" s="0"/>
+        <v>4207</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>3978</v>
+        <v>3960</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>4109</v>
-      </c>
-      <c r="D71" s="0"/>
+        <v>4208</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>3979</v>
+        <v>3960</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>4044</v>
+        <v>4048</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>4110</v>
-      </c>
-      <c r="D72" s="0"/>
+        <v>4209</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>3980</v>
+        <v>3960</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>4045</v>
+        <v>4049</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>4111</v>
-      </c>
-      <c r="D73" s="0"/>
+        <v>4210</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>3980</v>
+        <v>3960</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>4046</v>
+        <v>4050</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>4112</v>
-      </c>
-      <c r="D74" s="0"/>
+        <v>4211</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>3981</v>
+        <v>3960</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>4047</v>
+        <v>4051</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>4113</v>
-      </c>
-      <c r="D75" s="0"/>
+        <v>4212</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>4310</v>
+      </c>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E94" s="0"/>
+      <c r="F94" s="0"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>4237</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>4243</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E109" s="0"/>
+      <c r="F109" s="0"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>4247</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>4252</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>4257</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>4261</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>4262</v>
+      </c>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>4264</v>
+      </c>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>4267</v>
+      </c>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="0"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D131" s="0"/>
+      <c r="E131" s="0"/>
+      <c r="F131" s="0"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
+      <c r="F132" s="0"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D133" s="0"/>
+      <c r="E133" s="0"/>
+      <c r="F133" s="0"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+      <c r="F134" s="0"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D135" s="0"/>
+      <c r="E135" s="0"/>
+      <c r="F135" s="0"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
+      <c r="F137" s="0"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
+      <c r="F141" s="0"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D143" s="0"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D145" s="0"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D146" s="0"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D147" s="0"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D148" s="0"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="0"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D150" s="0"/>
+      <c r="E150" s="0"/>
+      <c r="F150" s="0"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="0"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>4291</v>
+      </c>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="0"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
     </row>
   </sheetData>
 </worksheet>
